--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Mcam</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H2">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J2">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>121.062689485986</v>
+        <v>123.3970183333333</v>
       </c>
       <c r="N2">
-        <v>121.062689485986</v>
+        <v>370.191055</v>
       </c>
       <c r="O2">
-        <v>0.8901818468338436</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="P2">
-        <v>0.8901818468338436</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="Q2">
-        <v>265.4306013403532</v>
+        <v>275.7765411566533</v>
       </c>
       <c r="R2">
-        <v>265.4306013403532</v>
+        <v>2481.98887040988</v>
       </c>
       <c r="S2">
-        <v>0.2508623947666981</v>
+        <v>0.2222731220834416</v>
       </c>
       <c r="T2">
-        <v>0.2508623947666981</v>
+        <v>0.2222731220834416</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H3">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J3">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.71136072652345</v>
+        <v>4.746833</v>
       </c>
       <c r="N3">
-        <v>4.71136072652345</v>
+        <v>14.240499</v>
       </c>
       <c r="O3">
-        <v>0.03464294251551855</v>
+        <v>0.03394113904158701</v>
       </c>
       <c r="P3">
-        <v>0.03464294251551855</v>
+        <v>0.03394113904158702</v>
       </c>
       <c r="Q3">
-        <v>10.32968386942372</v>
+        <v>10.608564160376</v>
       </c>
       <c r="R3">
-        <v>10.32968386942372</v>
+        <v>95.47707744338399</v>
       </c>
       <c r="S3">
-        <v>0.009762737301505748</v>
+        <v>0.008550396153564887</v>
       </c>
       <c r="T3">
-        <v>0.009762737301505748</v>
+        <v>0.00855039615356489</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H4">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J4">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.736398801961627</v>
+        <v>0.7507536666666667</v>
       </c>
       <c r="N4">
-        <v>0.736398801961627</v>
+        <v>2.252261</v>
       </c>
       <c r="O4">
-        <v>0.00541478839037616</v>
+        <v>0.005368091648961446</v>
       </c>
       <c r="P4">
-        <v>0.00541478839037616</v>
+        <v>0.005368091648961446</v>
       </c>
       <c r="Q4">
-        <v>1.614558355352057</v>
+        <v>1.677838348530666</v>
       </c>
       <c r="R4">
-        <v>1.614558355352057</v>
+        <v>15.100545136776</v>
       </c>
       <c r="S4">
-        <v>0.001525943027928565</v>
+        <v>0.001352320855555989</v>
       </c>
       <c r="T4">
-        <v>0.001525943027928565</v>
+        <v>0.001352320855555989</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.1925054074656</v>
+        <v>2.234872</v>
       </c>
       <c r="H5">
-        <v>2.1925054074656</v>
+        <v>6.704616</v>
       </c>
       <c r="I5">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J5">
-        <v>0.2818102791681873</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>9.487257427842939</v>
+        <v>0.3616873333333333</v>
       </c>
       <c r="N5">
-        <v>9.487257427842939</v>
+        <v>1.085062</v>
       </c>
       <c r="O5">
-        <v>0.0697604222602617</v>
+        <v>0.002586162199143618</v>
       </c>
       <c r="P5">
-        <v>0.0697604222602617</v>
+        <v>0.002586162199143618</v>
       </c>
       <c r="Q5">
-        <v>20.80086321256383</v>
+        <v>0.8083248940213332</v>
       </c>
       <c r="R5">
-        <v>20.80086321256383</v>
+        <v>7.274924046191999</v>
       </c>
       <c r="S5">
-        <v>0.01965920407205498</v>
+        <v>0.0006515017452112755</v>
       </c>
       <c r="T5">
-        <v>0.01965920407205498</v>
+        <v>0.0006515017452112757</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.14812814499138</v>
+        <v>2.234872</v>
       </c>
       <c r="H6">
-        <v>3.14812814499138</v>
+        <v>6.704616</v>
       </c>
       <c r="I6">
-        <v>0.4046397643428244</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="J6">
-        <v>0.4046397643428244</v>
+        <v>0.2519183620528573</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.062689485986</v>
+        <v>10.59856033333333</v>
       </c>
       <c r="N6">
-        <v>121.062689485986</v>
+        <v>31.795681</v>
       </c>
       <c r="O6">
-        <v>0.8901818468338436</v>
+        <v>0.07578257122471246</v>
       </c>
       <c r="P6">
-        <v>0.8901818468338436</v>
+        <v>0.07578257122471246</v>
       </c>
       <c r="Q6">
-        <v>381.1208600791845</v>
+        <v>23.68642572927733</v>
       </c>
       <c r="R6">
-        <v>381.1208600791845</v>
+        <v>213.177831563496</v>
       </c>
       <c r="S6">
-        <v>0.3602029727251067</v>
+        <v>0.01909102121508356</v>
       </c>
       <c r="T6">
-        <v>0.3602029727251067</v>
+        <v>0.01909102121508356</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H7">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J7">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.71136072652345</v>
+        <v>123.3970183333333</v>
       </c>
       <c r="N7">
-        <v>4.71136072652345</v>
+        <v>370.191055</v>
       </c>
       <c r="O7">
-        <v>0.03464294251551855</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="P7">
-        <v>0.03464294251551855</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="Q7">
-        <v>14.83196730437551</v>
+        <v>393.090703471245</v>
       </c>
       <c r="R7">
-        <v>14.83196730437551</v>
+        <v>3537.816331241205</v>
       </c>
       <c r="S7">
-        <v>0.01401791209562144</v>
+        <v>0.3168271585250537</v>
       </c>
       <c r="T7">
-        <v>0.01401791209562144</v>
+        <v>0.3168271585250537</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H8">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I8">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J8">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.736398801961627</v>
+        <v>4.746833</v>
       </c>
       <c r="N8">
-        <v>0.736398801961627</v>
+        <v>14.240499</v>
       </c>
       <c r="O8">
-        <v>0.00541478839037616</v>
+        <v>0.03394113904158701</v>
       </c>
       <c r="P8">
-        <v>0.00541478839037616</v>
+        <v>0.03394113904158702</v>
       </c>
       <c r="Q8">
-        <v>2.318277794393331</v>
+        <v>15.121402027641</v>
       </c>
       <c r="R8">
-        <v>2.318277794393331</v>
+        <v>136.092618248769</v>
       </c>
       <c r="S8">
-        <v>0.002191038698248071</v>
+        <v>0.01218769814454017</v>
       </c>
       <c r="T8">
-        <v>0.002191038698248071</v>
+        <v>0.01218769814454017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.14812814499138</v>
+        <v>3.185577</v>
       </c>
       <c r="H9">
-        <v>3.14812814499138</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I9">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J9">
-        <v>0.4046397643428244</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.487257427842939</v>
+        <v>0.7507536666666667</v>
       </c>
       <c r="N9">
-        <v>9.487257427842939</v>
+        <v>2.252261</v>
       </c>
       <c r="O9">
-        <v>0.0697604222602617</v>
+        <v>0.005368091648961446</v>
       </c>
       <c r="P9">
-        <v>0.0697604222602617</v>
+        <v>0.005368091648961446</v>
       </c>
       <c r="Q9">
-        <v>29.86710212737088</v>
+        <v>2.391583613199</v>
       </c>
       <c r="R9">
-        <v>29.86710212737088</v>
+        <v>21.524252518791</v>
       </c>
       <c r="S9">
-        <v>0.02822784082384822</v>
+        <v>0.001927592369531446</v>
       </c>
       <c r="T9">
-        <v>0.02822784082384822</v>
+        <v>0.001927592369531446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.43944251125924</v>
+        <v>3.185577</v>
       </c>
       <c r="H10">
-        <v>2.43944251125924</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I10">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J10">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>121.062689485986</v>
+        <v>0.3616873333333333</v>
       </c>
       <c r="N10">
-        <v>121.062689485986</v>
+        <v>1.085062</v>
       </c>
       <c r="O10">
-        <v>0.8901818468338436</v>
+        <v>0.002586162199143618</v>
       </c>
       <c r="P10">
-        <v>0.8901818468338436</v>
+        <v>0.002586162199143618</v>
       </c>
       <c r="Q10">
-        <v>295.3254712594913</v>
+        <v>1.152182850258</v>
       </c>
       <c r="R10">
-        <v>295.3254712594913</v>
+        <v>10.369645652322</v>
       </c>
       <c r="S10">
-        <v>0.2791164793420389</v>
+        <v>0.0009286478039927564</v>
       </c>
       <c r="T10">
-        <v>0.2791164793420389</v>
+        <v>0.0009286478039927564</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.43944251125924</v>
+        <v>3.185577</v>
       </c>
       <c r="H11">
-        <v>2.43944251125924</v>
+        <v>9.556730999999999</v>
       </c>
       <c r="I11">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="J11">
-        <v>0.3135499564889883</v>
+        <v>0.3590833569140671</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.71136072652345</v>
+        <v>10.59856033333333</v>
       </c>
       <c r="N11">
-        <v>4.71136072652345</v>
+        <v>31.795681</v>
       </c>
       <c r="O11">
-        <v>0.03464294251551855</v>
+        <v>0.07578257122471246</v>
       </c>
       <c r="P11">
-        <v>0.03464294251551855</v>
+        <v>0.07578257122471246</v>
       </c>
       <c r="Q11">
-        <v>11.49309364215852</v>
+        <v>33.762530030979</v>
       </c>
       <c r="R11">
-        <v>11.49309364215852</v>
+        <v>303.862770278811</v>
       </c>
       <c r="S11">
-        <v>0.01086229311839136</v>
+        <v>0.02721226007094914</v>
       </c>
       <c r="T11">
-        <v>0.01086229311839136</v>
+        <v>0.02721226007094914</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>2.43944251125924</v>
+        <v>0.3858173333333334</v>
       </c>
       <c r="H12">
-        <v>2.43944251125924</v>
+        <v>1.157452</v>
       </c>
       <c r="I12">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="J12">
-        <v>0.3135499564889883</v>
+        <v>0.04348994961006027</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.736398801961627</v>
+        <v>123.3970183333333</v>
       </c>
       <c r="N12">
-        <v>0.736398801961627</v>
+        <v>370.191055</v>
       </c>
       <c r="O12">
-        <v>0.00541478839037616</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="P12">
-        <v>0.00541478839037616</v>
+        <v>0.8823220358855955</v>
       </c>
       <c r="Q12">
-        <v>1.796402542745567</v>
+        <v>47.60870855465112</v>
       </c>
       <c r="R12">
-        <v>1.796402542745567</v>
+        <v>428.47837699186</v>
       </c>
       <c r="S12">
-        <v>0.001697806664199524</v>
+        <v>0.03837214088051034</v>
       </c>
       <c r="T12">
-        <v>0.001697806664199524</v>
+        <v>0.03837214088051034</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.157452</v>
+      </c>
+      <c r="I13">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J13">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>4.746833</v>
+      </c>
+      <c r="N13">
+        <v>14.240499</v>
+      </c>
+      <c r="O13">
+        <v>0.03394113904158701</v>
+      </c>
+      <c r="P13">
+        <v>0.03394113904158702</v>
+      </c>
+      <c r="Q13">
+        <v>1.831410449838667</v>
+      </c>
+      <c r="R13">
+        <v>16.482694048548</v>
+      </c>
+      <c r="S13">
+        <v>0.001476098426626669</v>
+      </c>
+      <c r="T13">
+        <v>0.001476098426626669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.157452</v>
+      </c>
+      <c r="I14">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J14">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7507536666666667</v>
+      </c>
+      <c r="N14">
+        <v>2.252261</v>
+      </c>
+      <c r="O14">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="P14">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="Q14">
+        <v>0.2896537776635556</v>
+      </c>
+      <c r="R14">
+        <v>2.606883998972</v>
+      </c>
+      <c r="S14">
+        <v>0.0002334580353155186</v>
+      </c>
+      <c r="T14">
+        <v>0.0002334580353155186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.157452</v>
+      </c>
+      <c r="I15">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J15">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.3616873333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.085062</v>
+      </c>
+      <c r="O15">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="P15">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="Q15">
+        <v>0.1395452424471111</v>
+      </c>
+      <c r="R15">
+        <v>1.255907182024</v>
+      </c>
+      <c r="S15">
+        <v>0.0001124720637241986</v>
+      </c>
+      <c r="T15">
+        <v>0.0001124720637241986</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.3858173333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.157452</v>
+      </c>
+      <c r="I16">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="J16">
+        <v>0.04348994961006027</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.59856033333333</v>
+      </c>
+      <c r="N16">
+        <v>31.795681</v>
+      </c>
+      <c r="O16">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="P16">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="Q16">
+        <v>4.089108284979112</v>
+      </c>
+      <c r="R16">
+        <v>36.80197456481201</v>
+      </c>
+      <c r="S16">
+        <v>0.003295780203883549</v>
+      </c>
+      <c r="T16">
+        <v>0.003295780203883549</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.894691</v>
+      </c>
+      <c r="I17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J17">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>123.3970183333333</v>
+      </c>
+      <c r="N17">
+        <v>370.191055</v>
+      </c>
+      <c r="O17">
+        <v>0.8823220358855955</v>
+      </c>
+      <c r="P17">
+        <v>0.8823220358855955</v>
+      </c>
+      <c r="Q17">
+        <v>36.80073390988944</v>
+      </c>
+      <c r="R17">
+        <v>331.206605189005</v>
+      </c>
+      <c r="S17">
+        <v>0.02966102187954634</v>
+      </c>
+      <c r="T17">
+        <v>0.02966102187954634</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.894691</v>
+      </c>
+      <c r="I18">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J18">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>4.746833</v>
+      </c>
+      <c r="N18">
+        <v>14.240499</v>
+      </c>
+      <c r="O18">
+        <v>0.03394113904158701</v>
+      </c>
+      <c r="P18">
+        <v>0.03394113904158702</v>
+      </c>
+      <c r="Q18">
+        <v>1.415649587867666</v>
+      </c>
+      <c r="R18">
+        <v>12.740846290809</v>
+      </c>
+      <c r="S18">
+        <v>0.001140999348065441</v>
+      </c>
+      <c r="T18">
+        <v>0.001140999348065441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="H13">
-        <v>2.43944251125924</v>
-      </c>
-      <c r="I13">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="J13">
-        <v>0.3135499564889883</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>9.487257427842939</v>
-      </c>
-      <c r="N13">
-        <v>9.487257427842939</v>
-      </c>
-      <c r="O13">
-        <v>0.0697604222602617</v>
-      </c>
-      <c r="P13">
-        <v>0.0697604222602617</v>
-      </c>
-      <c r="Q13">
-        <v>23.14361908474006</v>
-      </c>
-      <c r="R13">
-        <v>23.14361908474006</v>
-      </c>
-      <c r="S13">
-        <v>0.0218733773643585</v>
-      </c>
-      <c r="T13">
-        <v>0.0218733773643585</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.894691</v>
+      </c>
+      <c r="I19">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J19">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7507536666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.252261</v>
+      </c>
+      <c r="O19">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="P19">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="Q19">
+        <v>0.2238975162612222</v>
+      </c>
+      <c r="R19">
+        <v>2.015077646351</v>
+      </c>
+      <c r="S19">
+        <v>0.0001804591491262503</v>
+      </c>
+      <c r="T19">
+        <v>0.0001804591491262503</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.894691</v>
+      </c>
+      <c r="I20">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J20">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.3616873333333333</v>
+      </c>
+      <c r="N20">
+        <v>1.085062</v>
+      </c>
+      <c r="O20">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="P20">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="Q20">
+        <v>0.1078661339824444</v>
+      </c>
+      <c r="R20">
+        <v>0.970795205842</v>
+      </c>
+      <c r="S20">
+        <v>8.693902050838129E-05</v>
+      </c>
+      <c r="T20">
+        <v>8.69390205083813E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.2982303333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.894691</v>
+      </c>
+      <c r="I21">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="J21">
+        <v>0.03361700226581701</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>10.59856033333333</v>
+      </c>
+      <c r="N21">
+        <v>31.795681</v>
+      </c>
+      <c r="O21">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="P21">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="Q21">
+        <v>3.160812181063444</v>
+      </c>
+      <c r="R21">
+        <v>28.447309629571</v>
+      </c>
+      <c r="S21">
+        <v>0.002547582868570597</v>
+      </c>
+      <c r="T21">
+        <v>0.002547582868570598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.766917</v>
+      </c>
+      <c r="H22">
+        <v>8.300751</v>
+      </c>
+      <c r="I22">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J22">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>123.3970183333333</v>
+      </c>
+      <c r="N22">
+        <v>370.191055</v>
+      </c>
+      <c r="O22">
+        <v>0.8823220358855955</v>
+      </c>
+      <c r="P22">
+        <v>0.8823220358855955</v>
+      </c>
+      <c r="Q22">
+        <v>341.4293077758117</v>
+      </c>
+      <c r="R22">
+        <v>3072.863769982305</v>
+      </c>
+      <c r="S22">
+        <v>0.2751885925170435</v>
+      </c>
+      <c r="T22">
+        <v>0.2751885925170435</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.766917</v>
+      </c>
+      <c r="H23">
+        <v>8.300751</v>
+      </c>
+      <c r="I23">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J23">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.746833</v>
+      </c>
+      <c r="N23">
+        <v>14.240499</v>
+      </c>
+      <c r="O23">
+        <v>0.03394113904158701</v>
+      </c>
+      <c r="P23">
+        <v>0.03394113904158702</v>
+      </c>
+      <c r="Q23">
+        <v>13.134092923861</v>
+      </c>
+      <c r="R23">
+        <v>118.206836314749</v>
+      </c>
+      <c r="S23">
+        <v>0.01058594696878985</v>
+      </c>
+      <c r="T23">
+        <v>0.01058594696878985</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.766917</v>
+      </c>
+      <c r="H24">
+        <v>8.300751</v>
+      </c>
+      <c r="I24">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J24">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.7507536666666667</v>
+      </c>
+      <c r="N24">
+        <v>2.252261</v>
+      </c>
+      <c r="O24">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="P24">
+        <v>0.005368091648961446</v>
+      </c>
+      <c r="Q24">
+        <v>2.077273083112333</v>
+      </c>
+      <c r="R24">
+        <v>18.695457748011</v>
+      </c>
+      <c r="S24">
+        <v>0.001674261239432241</v>
+      </c>
+      <c r="T24">
+        <v>0.001674261239432241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.766917</v>
+      </c>
+      <c r="H25">
+        <v>8.300751</v>
+      </c>
+      <c r="I25">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J25">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.3616873333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.085062</v>
+      </c>
+      <c r="O25">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="P25">
+        <v>0.002586162199143618</v>
+      </c>
+      <c r="Q25">
+        <v>1.000758831284666</v>
+      </c>
+      <c r="R25">
+        <v>9.006829481561999</v>
+      </c>
+      <c r="S25">
+        <v>0.0008066015657070057</v>
+      </c>
+      <c r="T25">
+        <v>0.0008066015657070057</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2.766917</v>
+      </c>
+      <c r="H26">
+        <v>8.300751</v>
+      </c>
+      <c r="I26">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="J26">
+        <v>0.3118913291571982</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>10.59856033333333</v>
+      </c>
+      <c r="N26">
+        <v>31.795681</v>
+      </c>
+      <c r="O26">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="P26">
+        <v>0.07578257122471246</v>
+      </c>
+      <c r="Q26">
+        <v>29.32533676182566</v>
+      </c>
+      <c r="R26">
+        <v>263.928030856431</v>
+      </c>
+      <c r="S26">
+        <v>0.02363592686622561</v>
+      </c>
+      <c r="T26">
+        <v>0.02363592686622561</v>
       </c>
     </row>
   </sheetData>
